--- a/experimentos/data/exp5/test5-caomparissons.xlsx
+++ b/experimentos/data/exp5/test5-caomparissons.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>numero usuarios</t>
   </si>
@@ -46,6 +46,18 @@
   </si>
   <si>
     <t>Qtd Sujeira 9-asp</t>
+  </si>
+  <si>
+    <t>0 aspiradores e 3 coordenadores</t>
+  </si>
+  <si>
+    <t>3 aspiradores e 3 coordenadores</t>
+  </si>
+  <si>
+    <t>6 aspiradores e 3 coordenadores</t>
+  </si>
+  <si>
+    <t>9 aspiradores e 3 coordenadores</t>
   </si>
 </sst>
 </file>
@@ -624,7 +636,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Experimento 5</a:t>
+              <a:t>Variação de Utilidade</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -671,11 +683,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>test5_means!$C$1</c:f>
+              <c:f>test5_means!$M$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Utilidade 0-asp</c:v>
+                  <c:v>0 aspiradores e 3 coordenadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -806,11 +818,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>test5_means!$E$1</c:f>
+              <c:f>test5_means!$M$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Utilidade 3-asp</c:v>
+                  <c:v>3 aspiradores e 3 coordenadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -941,11 +953,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>test5_means!$G$1</c:f>
+              <c:f>test5_means!$M$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Utilidade 6-asp</c:v>
+                  <c:v>6 aspiradores e 3 coordenadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1076,11 +1088,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>test5_means!$I$1</c:f>
+              <c:f>test5_means!$M$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Utilidade 9-asp</c:v>
+                  <c:v>9 aspiradores e 3 coordenadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1216,11 +1228,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="305616736"/>
-        <c:axId val="305612424"/>
+        <c:axId val="443100152"/>
+        <c:axId val="443103680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="305616736"/>
+        <c:axId val="443100152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1319,7 +1331,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305612424"/>
+        <c:crossAx val="443103680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1327,7 +1339,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="305612424"/>
+        <c:axId val="443103680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1434,7 +1446,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305616736"/>
+        <c:crossAx val="443100152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1550,7 +1562,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Experimento 5</a:t>
+              <a:t>Variação de Sujeira</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1597,11 +1609,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>test5_means!$D$1</c:f>
+              <c:f>test5_means!$M$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Qtd Sujeira 0-asp</c:v>
+                  <c:v>0 aspiradores e 3 coordenadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1732,11 +1744,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>test5_means!$F$1</c:f>
+              <c:f>test5_means!$M$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Qtd Sujeira 3-asp</c:v>
+                  <c:v>3 aspiradores e 3 coordenadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1867,11 +1879,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>test5_means!$H$1</c:f>
+              <c:f>test5_means!$M$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Qtd Sujeira 6-asp</c:v>
+                  <c:v>6 aspiradores e 3 coordenadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2002,11 +2014,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>test5_means!$J$1</c:f>
+              <c:f>test5_means!$M$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Qtd Sujeira 9-asp</c:v>
+                  <c:v>9 aspiradores e 3 coordenadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2142,11 +2154,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="313067328"/>
-        <c:axId val="313066152"/>
+        <c:axId val="443102504"/>
+        <c:axId val="443102896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="313067328"/>
+        <c:axId val="443102504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2245,7 +2257,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313066152"/>
+        <c:crossAx val="443102896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2253,7 +2265,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="313066152"/>
+        <c:axId val="443102896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2360,7 +2372,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313067328"/>
+        <c:crossAx val="443102504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3463,16 +3475,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3494,15 +3506,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>100011</xdr:rowOff>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3787,10 +3799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3804,9 +3816,10 @@
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="15.140625" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3835,7 +3848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3867,7 +3880,7 @@
         <v>34.408999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3899,7 +3912,7 @@
         <v>40.125</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3931,7 +3944,7 @@
         <v>42.201000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3962,8 +3975,11 @@
       <c r="J5">
         <v>46.899000000000001</v>
       </c>
+      <c r="M5" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3994,8 +4010,11 @@
       <c r="J6">
         <v>51.454000000000001</v>
       </c>
+      <c r="M6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4026,8 +4045,11 @@
       <c r="J7">
         <v>56.87</v>
       </c>
+      <c r="M7" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4058,8 +4080,11 @@
       <c r="J8">
         <v>61.860999999999997</v>
       </c>
+      <c r="M8" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4091,7 +4116,7 @@
         <v>67.021000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4123,7 +4148,7 @@
         <v>73.194999999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4155,7 +4180,7 @@
         <v>83.242000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4187,7 +4212,7 @@
         <v>88.24</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4219,7 +4244,7 @@
         <v>96.272999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4251,7 +4276,7 @@
         <v>105.471</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4283,7 +4308,7 @@
         <v>116.879</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
